--- a/Documentation/UseCases - Scénarios/Scénarios/ScénariosGuest.xlsx
+++ b/Documentation/UseCases - Scénarios/Scénarios/ScénariosGuest.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel.PITTET\Documents\GitHub\Pre-TPI_2023\Documentation\UseCases - Scénarios\Scénarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4707EA-A0C1-427A-A1A4-D55B530FA3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC948D8-7357-4F95-90E3-FF591CC68C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14925" yWindow="4470" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{3CC9808D-9F48-48C1-8654-DA68AC4A64CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="5" xr2:uid="{3CC9808D-9F48-48C1-8654-DA68AC4A64CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Créer un compte" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Création d'un compte" sheetId="1" r:id="rId1"/>
+    <sheet name="Connexion" sheetId="2" r:id="rId2"/>
+    <sheet name="Consulter une page d'acceuil" sheetId="3" r:id="rId3"/>
+    <sheet name="Consultation des plats_x0009__x0009_" sheetId="4" r:id="rId4"/>
+    <sheet name="Recherche de plats" sheetId="5" r:id="rId5"/>
+    <sheet name="Consulter une page de contact" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -35,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
-  <si>
-    <t>Créer un compte</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Action utilisateur</t>
   </si>
@@ -85,9 +86,6 @@
     <t>Enregistre le compte dans la base de données</t>
   </si>
   <si>
-    <t>Se connecter</t>
-  </si>
-  <si>
     <t>Affiche un formulaire de connexion</t>
   </si>
   <si>
@@ -101,6 +99,63 @@
   </si>
   <si>
     <t>Clique sur &lt;Login&gt;</t>
+  </si>
+  <si>
+    <t>Création d'un compte</t>
+  </si>
+  <si>
+    <t>Connexion</t>
+  </si>
+  <si>
+    <t>Consultation d'une page d'acceuil et de présentation du restaurant</t>
+  </si>
+  <si>
+    <t>Se rend sur le site</t>
+  </si>
+  <si>
+    <t>Affiche la page d'acceuil contenant une présentation du restaurant</t>
+  </si>
+  <si>
+    <t>Consultation des plats</t>
+  </si>
+  <si>
+    <t>Clique sur le bouton &lt;Show plates&gt;</t>
+  </si>
+  <si>
+    <t>Ou</t>
+  </si>
+  <si>
+    <t>Scroll vers le bas</t>
+  </si>
+  <si>
+    <t>Affiche une liste des plats</t>
+  </si>
+  <si>
+    <t>Recherche simple sur le nom des plats</t>
+  </si>
+  <si>
+    <t>Clique sur l'icone "loupe"</t>
+  </si>
+  <si>
+    <t>Affiche une barre de recherche</t>
+  </si>
+  <si>
+    <t>Remplis la barre de recherche et appuye sur "Enter"</t>
+  </si>
+  <si>
+    <t>La recherche ne contient pas de caractères spéciaux</t>
+  </si>
+  <si>
+    <t>Affiche les plats correspondants à la recherche</t>
+  </si>
+  <si>
+    <t>Consultation d'une page de contact</t>
+  </si>
+  <si>
+    <t>Clique sur le bouton &lt;Contact&gt;</t>
+  </si>
+  <si>
+    <t>Affiche une page de contact contenant une adresse et un numéro de téléphone</t>
   </si>
 </sst>
 </file>
@@ -175,7 +230,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="30">
     <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -248,6 +303,150 @@
       </fill>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -262,24 +461,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{96C033AE-1A82-4827-BB2B-D68627598A84}" name="Tableau1" displayName="Tableau1" ref="A2:C21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{96C033AE-1A82-4827-BB2B-D68627598A84}" name="Tableau1" displayName="Tableau1" ref="A2:C21" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A2:C21" xr:uid="{96C033AE-1A82-4827-BB2B-D68627598A84}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A6DBACDE-C1D6-47E2-BDEC-B7267AFC0252}" name="Action utilisateur" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{28232EB2-4581-4807-BDF9-0DFB70B011D6}" name="Condition" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{AE2531E7-D536-4C37-AADF-51D90E9616F1}" name="Réaction" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A6DBACDE-C1D6-47E2-BDEC-B7267AFC0252}" name="Action utilisateur" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{28232EB2-4581-4807-BDF9-0DFB70B011D6}" name="Condition" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{AE2531E7-D536-4C37-AADF-51D90E9616F1}" name="Réaction" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA89BB26-4E7A-448C-915A-9001CF07F26F}" name="Tableau12" displayName="Tableau12" ref="A2:C21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA89BB26-4E7A-448C-915A-9001CF07F26F}" name="Tableau12" displayName="Tableau12" ref="A2:C21" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A2:C21" xr:uid="{FA89BB26-4E7A-448C-915A-9001CF07F26F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5CA978E3-D40C-4C03-97C3-89E84ED2C188}" name="Action utilisateur" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{EA77E7E7-C13C-4942-93F6-C14DFC6D222E}" name="Condition" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{A33925E1-98FE-43DC-8E33-D59CABA61984}" name="Réaction" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5CA978E3-D40C-4C03-97C3-89E84ED2C188}" name="Action utilisateur" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{EA77E7E7-C13C-4942-93F6-C14DFC6D222E}" name="Condition" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{A33925E1-98FE-43DC-8E33-D59CABA61984}" name="Réaction" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E6199B4A-39E5-446F-8E9C-8468CFBF2CB7}" name="Tableau123" displayName="Tableau123" ref="A2:C21" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A2:C21" xr:uid="{E6199B4A-39E5-446F-8E9C-8468CFBF2CB7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{36C853DD-F693-49FB-A1F5-5A5C68FB099B}" name="Action utilisateur" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{0B07AEE5-0B67-4624-B88D-263CA02488C7}" name="Condition" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{6EF94B8B-85A9-42E5-BCB7-E6FCE04A3113}" name="Réaction" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92B2E616-679C-4B95-B946-3046EBCC29B4}" name="Tableau1235" displayName="Tableau1235" ref="A2:C21" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A2:C21" xr:uid="{92B2E616-679C-4B95-B946-3046EBCC29B4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7138ABF2-6E4D-4179-AB45-97C37E1A3580}" name="Action utilisateur" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{7C61B928-9905-465F-ADCA-2E908188D0ED}" name="Condition" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{C0F0DFA6-7680-4BE1-867E-FBA2CAFCA467}" name="Réaction" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1BE245AB-97BF-4512-9EAC-AD2FC47DE685}" name="Tableau1236" displayName="Tableau1236" ref="A2:C21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A2:C21" xr:uid="{1BE245AB-97BF-4512-9EAC-AD2FC47DE685}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{471ED88B-4023-4F34-BE1B-30299D975EB4}" name="Action utilisateur" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{AC17ACFE-BF50-40DA-921E-82063AC79453}" name="Condition" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{A53952CC-2556-4841-AC4D-E03C9E886E65}" name="Réaction" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5BB599A4-A0FD-4705-9740-A1C8E130D39D}" name="Tableau1237" displayName="Tableau1237" ref="A2:C21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A2:C21" xr:uid="{5BB599A4-A0FD-4705-9740-A1C8E130D39D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CD695EB0-D5FA-4D57-80F9-C8E8424719E1}" name="Action utilisateur" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{6F470D56-F586-4588-9C85-C99C5FD3C58C}" name="Condition" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{0AE1BAC2-F81D-48C6-9D8C-F00D11D60817}" name="Réaction" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -585,7 +832,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,84 +842,84 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E9A2F3-5107-4346-894D-895830D3B2A8}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,64 +1003,638 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C2BFF1-D369-412D-9557-51B2637A757B}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4360B528-F050-467B-9D37-0453A7A49088}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9FEBD9-BCCE-416D-B1D0-D67331CC9189}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E3A5CD-6DD4-4F8A-8B77-76E138A40641}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
